--- a/SPPSApi/Doc/Template/FS0705_Export2.xlsx
+++ b/SPPSApi/Doc/Template/FS0705_Export2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B6CDDA-1344-4AF4-B362-6B63622A683E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D815D2-561C-42E0-BDC2-218037BA94D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,25 +12,17 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>A=发注收容数    B=上时段残数    C=部品换算包材需求    D= 1:包材损耗数量，2:货架容量调整数量    D=紧急入荷实际    E=包材订购数量(理论)    G=本时段残数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GPS品番</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,6 +52,14 @@
   </si>
   <si>
     <t>计算时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A=发注收容数    B=上时段残数    C=部品换算包材需求    D=包材损耗量、货架容量调整数量    E=紧急入荷实际    F=包材订购数量(理论)    G=本时段残数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSP品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -92,18 +92,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -111,18 +111,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -464,71 +500,70 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6328125" customWidth="1"/>
-    <col min="12" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" customWidth="1"/>
-    <col min="21" max="21" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" style="1" customWidth="1"/>
+    <col min="4" max="10" width="6.6328125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.6328125" customWidth="1"/>
+    <col min="20" max="20" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0705_Export2.xlsx
+++ b/SPPSApi/Doc/Template/FS0705_Export2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D815D2-561C-42E0-BDC2-218037BA94D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E4E013-6A40-4E05-8BF9-4C7269C262FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,54 +12,50 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计算时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A=发注收容数    B=上时段残数    C=部品换算包材需求    D=包材损耗量、货架容量调整数量    E=紧急入荷实际    F=包材订购数量(理论)    G=本时段残数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GSP品番</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A：发注收容数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B：上时段残数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C：部品换算包材需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D：包材损耗量、货架容量调整数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E：紧急入荷实际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F：包材订购数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G：本时段残数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -83,7 +79,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,14 +92,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -126,24 +116,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -151,14 +128,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -500,15 +473,19 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" style="1" customWidth="1"/>
-    <col min="4" max="10" width="6.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="14.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.54296875" bestFit="1" customWidth="1"/>
@@ -529,46 +506,62 @@
     <col min="32" max="32" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>7</v>
-      </c>
+    <row r="2" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
+  <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPPSApi/Doc/Template/FS0705_Export2.xlsx
+++ b/SPPSApi/Doc/Template/FS0705_Export2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E4E013-6A40-4E05-8BF9-4C7269C262FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10D2BE8-BE9B-4AC5-AE70-9FE3435F6B8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,10 @@
   </si>
   <si>
     <t>G：本时段残数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发注便次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -63,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +77,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -120,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -129,8 +141,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,94 +485,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="14.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.6328125" customWidth="1"/>
-    <col min="20" max="20" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.36328125" style="1" customWidth="1"/>
+    <col min="5" max="11" width="9.08984375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6328125" customWidth="1"/>
+    <col min="21" max="21" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:A2"/>
+  <mergeCells count="11">
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>

--- a/SPPSApi/Doc/Template/FS0705_Export2.xlsx
+++ b/SPPSApi/Doc/Template/FS0705_Export2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10D2BE8-BE9B-4AC5-AE70-9FE3435F6B8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94168AC1-54B5-4687-9F5F-CCAB83F42653}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,10 @@
   </si>
   <si>
     <t>发注便次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否发注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,10 +146,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,100 +489,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.36328125" style="1" customWidth="1"/>
-    <col min="5" max="11" width="9.08984375" style="1" customWidth="1"/>
-    <col min="12" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" customWidth="1"/>
-    <col min="21" max="21" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" style="1" customWidth="1"/>
+    <col min="6" max="12" width="9.08984375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.6328125" customWidth="1"/>
+    <col min="22" max="22" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
